--- a/fcst_results/arima_with_outliers_summary_stats_HOU-Int.xlsx
+++ b/fcst_results/arima_with_outliers_summary_stats_HOU-Int.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,97 +472,72 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-22480</v>
+        <v>-3032.4142</v>
       </c>
       <c r="C2" t="n">
-        <v>24800</v>
+        <v>1572.515</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.908</v>
+        <v>-1.928</v>
       </c>
       <c r="E2" t="n">
-        <v>0.364</v>
+        <v>0.054</v>
       </c>
       <c r="F2" t="n">
-        <v>-71000</v>
+        <v>-6114.487</v>
       </c>
       <c r="G2" t="n">
-        <v>26000</v>
+        <v>49.658</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>LS2020Apr</t>
+          <t>ma.S.L12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-38840</v>
+        <v>-0.6571</v>
       </c>
       <c r="C3" t="n">
-        <v>25000</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.556</v>
+        <v>-7.84</v>
       </c>
       <c r="E3" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-87800</v>
+        <v>-0.821</v>
       </c>
       <c r="G3" t="n">
-        <v>10100</v>
+        <v>-0.493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ma.S.L12</t>
+          <t>sigma2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0456</v>
+        <v>37290000</v>
       </c>
       <c r="C4" t="n">
-        <v>0.131</v>
+        <v>0.102</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.347</v>
+        <v>365000000</v>
       </c>
       <c r="E4" t="n">
-        <v>0.728</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.303</v>
+        <v>37300000</v>
       </c>
       <c r="G4" t="n">
-        <v>0.212</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>sigma2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>31550000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="D5" t="n">
-        <v>744000000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>31500000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>31500000</v>
+        <v>37300000</v>
       </c>
     </row>
   </sheetData>
